--- a/report/reliability/by-comb/Ensino Superior-Linguística.Letras e Artes.xlsx
+++ b/report/reliability/by-comb/Ensino Superior-Linguística.Letras e Artes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="47">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -71,22 +71,28 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item3</t>
+  </si>
+  <si>
     <t>Item4</t>
   </si>
   <si>
     <t>Item5</t>
   </si>
   <si>
-    <t>Item3</t>
-  </si>
-  <si>
     <t>Item6</t>
   </si>
   <si>
-    <t>Item15</t>
+    <t>Item12</t>
   </si>
   <si>
     <t>Item13</t>
+  </si>
+  <si>
+    <t>Item14</t>
+  </si>
+  <si>
+    <t>Item15</t>
   </si>
   <si>
     <t>Item17</t>
@@ -95,31 +101,13 @@
     <t>Item18</t>
   </si>
   <si>
-    <t>Item14</t>
-  </si>
-  <si>
-    <t>Item12</t>
-  </si>
-  <si>
     <t>Item19</t>
   </si>
   <si>
-    <t>Item2</t>
-  </si>
-  <si>
-    <t>Item11</t>
-  </si>
-  <si>
-    <t>Item16</t>
-  </si>
-  <si>
-    <t>Item9</t>
+    <t>Item21</t>
   </si>
   <si>
     <t>Item23</t>
-  </si>
-  <si>
-    <t>Item21</t>
   </si>
   <si>
     <t>Item statistics</t>
@@ -2475,31 +2463,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.9045789135932959</v>
+        <v>0.8729670240907897</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.9060082552293625</v>
+        <v>0.8731309956269027</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9651783109291318</v>
+        <v>0.9410119374626631</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.3618434699851325</v>
+        <v>0.34614703668928753</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>9.639232226619919</v>
+        <v>6.882145879061145</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.024396544411065053</v>
+        <v>0.03276545495429818</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.84375</v>
+        <v>2.7427884615384617</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.679719017573265</v>
+        <v>0.7016489658190687</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.3639109629875659</v>
+        <v>0.35845895863771926</v>
       </c>
     </row>
     <row r="7">
@@ -2549,28 +2537,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.9056687082013376</v>
+        <v>0.8611081041249039</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.9059557268066499</v>
+        <v>0.8615480612249306</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.9603653995252284</v>
+        <v>0.9207947211671998</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.3758116809371163</v>
+        <v>0.34148151117171754</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>9.633289684147526</v>
+        <v>6.222722981327197</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.023931713928566783</v>
+        <v>0.0358988516177365</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.03063051626908334</v>
+        <v>0.03589279215375369</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.37314852515941044</v>
+        <v>0.3408686277459224</v>
       </c>
     </row>
     <row r="12">
@@ -2578,28 +2566,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.8991255281059792</v>
+        <v>0.8700534378339864</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.9008372550714479</v>
+        <v>0.8693067863260945</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.956930196270216</v>
+        <v>0.9281445953555527</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.36215419464525644</v>
+        <v>0.3566203420795671</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>9.084432421878919</v>
+        <v>6.651506699461185</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.025704813646503694</v>
+        <v>0.03326283457842705</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.03565951701558378</v>
+        <v>0.03152179978042224</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.3665054198242301</v>
+        <v>0.36188115254719067</v>
       </c>
     </row>
     <row r="13">
@@ -2607,28 +2595,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.8979590428971761</v>
+        <v>0.8614249553597708</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.8997131734948229</v>
+        <v>0.8618573322082195</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.9578634044377327</v>
+        <v>0.9250610059136888</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.35926698563443915</v>
+        <v>0.34206533496520813</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>8.97139938363069</v>
+        <v>6.238893066024169</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.02610026032386635</v>
+        <v>0.03565207553967171</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.034844760153883624</v>
+        <v>0.03746117958434022</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.3608127223853745</v>
+        <v>0.3641046648490646</v>
       </c>
     </row>
     <row r="14">
@@ -2636,28 +2624,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.8974654298424083</v>
+        <v>0.8576221828310965</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.899653512833036</v>
+        <v>0.858706943710574</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.9587408659073829</v>
+        <v>0.9287199835563635</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.35911483304651204</v>
+        <v>0.3361909807979192</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>8.965470922127293</v>
+        <v>6.077488634343016</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.026120334581050904</v>
+        <v>0.03669875366150422</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.03580865967884304</v>
+        <v>0.037531827338609096</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.36465580231983846</v>
+        <v>0.34281214868579235</v>
       </c>
     </row>
     <row r="15">
@@ -2665,28 +2653,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.896466864691496</v>
+        <v>0.8773658718330848</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.8972620024848796</v>
+        <v>0.8798261025789406</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.9561748964125644</v>
+        <v>0.9424169589143031</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.35310401352430065</v>
+        <v>0.3789229618942031</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>8.733497091500412</v>
+        <v>7.321274598395101</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.026517091528255318</v>
+        <v>0.03227577647107273</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.03349991004279062</v>
+        <v>0.031577307340538124</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.35944765154070224</v>
+        <v>0.38233882793465657</v>
       </c>
     </row>
     <row r="16">
@@ -2694,28 +2682,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.8971800384293639</v>
+        <v>0.861304883580187</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.8986049025506762</v>
+        <v>0.8609326570179734</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.9589915049985013</v>
+        <v>0.9292533766032202</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.356458197487637</v>
+        <v>0.34032445785513615</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>8.862409772817559</v>
+        <v>6.190760810963667</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.026342103995191025</v>
+        <v>0.03581024376289519</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.033279903457763035</v>
+        <v>0.03599486689520982</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.3622913953549759</v>
+        <v>0.35845895863771926</v>
       </c>
     </row>
     <row r="17">
@@ -2723,28 +2711,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.8924051643817383</v>
+        <v>0.8740797039425784</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8944065688896067</v>
+        <v>0.8750134530970682</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9546601191082367</v>
+        <v>0.9423306311739518</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.34614577236459143</v>
+        <v>0.36844967485419583</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>8.470286072573437</v>
+        <v>7.0008610908870885</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.027678212663972548</v>
+        <v>0.03286568816219267</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.0341500278718076</v>
+        <v>0.03552195843063326</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.3335792336056209</v>
+        <v>0.36918182183713016</v>
       </c>
     </row>
     <row r="18">
@@ -2752,28 +2740,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.8992117127065316</v>
+        <v>0.8590037251881989</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8998329648423979</v>
+        <v>0.8570963416391688</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9576354416246846</v>
+        <v>0.9303684980191587</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.3595728181228916</v>
+        <v>0.33324893310233145</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>8.98332433845733</v>
+        <v>5.9977214822240885</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.025805160094192987</v>
+        <v>0.03640126035462137</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.032908305421859456</v>
+        <v>0.03588820368637392</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.3639109629875659</v>
+        <v>0.32135274960035753</v>
       </c>
     </row>
     <row r="19">
@@ -2781,28 +2769,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.9052820664529214</v>
+        <v>0.8505829211634256</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.9072981027886564</v>
+        <v>0.8507393765165188</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9666564068078697</v>
+        <v>0.9243442450283328</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.3795387165075431</v>
+        <v>0.3220220480974826</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>9.78726574193169</v>
+        <v>5.69969062611259</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.024408958266115464</v>
+        <v>0.038810762671851295</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.033901529611929784</v>
+        <v>0.03585193840018416</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.3784465842999511</v>
+        <v>0.2957967320957635</v>
       </c>
     </row>
     <row r="20">
@@ -2810,28 +2798,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.9071600728321387</v>
+        <v>0.864072402554344</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.9098402283483539</v>
+        <v>0.8624454263293891</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9668135915642251</v>
+        <v>0.9355890913617484</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.38677161755155864</v>
+        <v>0.3431798654308815</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>10.091421170228106</v>
+        <v>6.269841876683846</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.0240511448828322</v>
+        <v>0.03497976184341739</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.03101557348412425</v>
+        <v>0.0361702031741814</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.38792828616127484</v>
+        <v>0.35845895863771926</v>
       </c>
     </row>
     <row r="21">
@@ -2839,28 +2827,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.8995435028248587</v>
+        <v>0.8664294905760351</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.9011592304011457</v>
+        <v>0.8670849794296754</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.95784319519807</v>
+        <v>0.9303358837717619</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.3629884153988223</v>
+        <v>0.35217790746431277</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>9.117282615852792</v>
+        <v>6.52360414728978</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.025718630537207226</v>
+        <v>0.034601185197766185</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.03511778341228243</v>
+        <v>0.03730176630407361</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.3622913953549759</v>
+        <v>0.36188115254719067</v>
       </c>
     </row>
     <row r="22">
@@ -2868,28 +2856,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.894962575194012</v>
+        <v>0.8654553629823413</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.8962239282029739</v>
+        <v>0.8665639044658783</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9571898751713231</v>
+        <v>0.9166286058304249</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.3505474179700866</v>
+        <v>0.3511487722049528</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>8.63613271039863</v>
+        <v>6.4942240778042315</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.026895059274826907</v>
+        <v>0.03478270792655432</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.033169323789562326</v>
+        <v>0.03468640016680524</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.3608127223853745</v>
+        <v>0.3408686277459224</v>
       </c>
     </row>
     <row r="23">
@@ -2897,681 +2885,645 @@
         <v>30</v>
       </c>
       <c r="B23" t="n" s="58">
-        <v>0.8953675558136093</v>
+        <v>0.8579877686888756</v>
       </c>
       <c r="C23" t="n" s="59">
-        <v>0.8961241810349887</v>
+        <v>0.8575528419436728</v>
       </c>
       <c r="D23" t="n" s="60">
-        <v>0.9611246549200272</v>
+        <v>0.9336181926343565</v>
       </c>
       <c r="E23" t="n" s="61">
-        <v>0.3503033971137475</v>
+        <v>0.33407868704283</v>
       </c>
       <c r="F23" t="n" s="62">
-        <v>8.626879575667484</v>
+        <v>6.020147075202266</v>
       </c>
       <c r="G23" t="n" s="63">
-        <v>0.026781240719185993</v>
+        <v>0.03672819068893563</v>
       </c>
       <c r="H23" t="n" s="64">
-        <v>0.032294438431855366</v>
+        <v>0.03688202130692974</v>
       </c>
       <c r="I23" t="n" s="65">
-        <v>0.35944765154070224</v>
+        <v>0.32135274960035753</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="53">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="B24" t="n" s="58">
-        <v>0.9040423608420508</v>
-      </c>
-      <c r="C24" t="n" s="59">
-        <v>0.9057776636457218</v>
-      </c>
-      <c r="D24" t="n" s="60">
-        <v>0.960316519549022</v>
-      </c>
-      <c r="E24" t="n" s="61">
-        <v>0.3753219700697653</v>
-      </c>
-      <c r="F24" t="n" s="62">
-        <v>9.613194691330689</v>
-      </c>
-      <c r="G24" t="n" s="63">
-        <v>0.024666145121331636</v>
-      </c>
-      <c r="H24" t="n" s="64">
-        <v>0.035417627666215305</v>
-      </c>
-      <c r="I24" t="n" s="65">
-        <v>0.38233882793465657</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="53">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="B25" t="n" s="58">
-        <v>0.8978464039008534</v>
-      </c>
-      <c r="C25" t="n" s="59">
-        <v>0.8992225751555601</v>
-      </c>
-      <c r="D25" t="n" s="60">
-        <v>0.9626533038434858</v>
-      </c>
-      <c r="E25" t="n" s="61">
-        <v>0.3580190327173233</v>
-      </c>
-      <c r="F25" t="n" s="62">
-        <v>8.92285724251836</v>
-      </c>
-      <c r="G25" t="n" s="63">
-        <v>0.026104894977012145</v>
-      </c>
-      <c r="H25" t="n" s="64">
-        <v>0.03636794765811769</v>
-      </c>
-      <c r="I25" t="n" s="65">
-        <v>0.35944765154070224</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="53">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="B26" t="n" s="58">
-        <v>0.894912764003673</v>
-      </c>
-      <c r="C26" t="n" s="59">
-        <v>0.8961501732343364</v>
-      </c>
-      <c r="D26" t="n" s="60">
-        <v>0.9617449673611799</v>
-      </c>
-      <c r="E26" t="n" s="61">
-        <v>0.3503669567659645</v>
-      </c>
-      <c r="F26" t="n" s="62">
-        <v>8.629289052705825</v>
-      </c>
-      <c r="G26" t="n" s="63">
-        <v>0.02692989033158248</v>
-      </c>
-      <c r="H26" t="n" s="64">
-        <v>0.033951871356987885</v>
-      </c>
-      <c r="I26" t="n" s="65">
-        <v>0.34689831846597863</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="53">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="B27" t="n" s="58">
-        <v>0.900329405372364</v>
-      </c>
-      <c r="C27" t="n" s="59">
-        <v>0.9022553773266407</v>
-      </c>
-      <c r="D27" t="n" s="60">
-        <v>0.9557961189033256</v>
-      </c>
-      <c r="E27" t="n" s="61">
-        <v>0.3658529698896965</v>
-      </c>
-      <c r="F27" t="n" s="62">
-        <v>9.230741831617442</v>
-      </c>
-      <c r="G27" t="n" s="63">
-        <v>0.02554055751090179</v>
-      </c>
-      <c r="H27" t="n" s="64">
-        <v>0.03382105581874859</v>
-      </c>
-      <c r="I27" t="n" s="65">
-        <v>0.3608127223853745</v>
+      <c r="E27" t="s" s="83">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s" s="83">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>1</v>
+      <c r="A28" t="s" s="79">
+        <v>18</v>
+      </c>
+      <c r="B28" t="n" s="84">
+        <v>32.0</v>
+      </c>
+      <c r="C28" t="n" s="85">
+        <v>0.6729843991591664</v>
+      </c>
+      <c r="D28" t="n" s="86">
+        <v>0.6672568152355187</v>
+      </c>
+      <c r="E28" t="n" s="87">
+        <v>0.6672519013507406</v>
+      </c>
+      <c r="F28" t="n" s="88">
+        <v>0.5934567332931252</v>
+      </c>
+      <c r="G28" t="n" s="89">
+        <v>2.5</v>
+      </c>
+      <c r="H28" t="n" s="90">
+        <v>1.1639753904947558</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
+      <c r="A29" t="s" s="79">
+        <v>19</v>
+      </c>
+      <c r="B29" t="n" s="84">
+        <v>32.0</v>
+      </c>
+      <c r="C29" t="n" s="85">
+        <v>0.5784841489980275</v>
+      </c>
+      <c r="D29" t="n" s="86">
+        <v>0.5451886785700405</v>
+      </c>
+      <c r="E29" t="n" s="87">
+        <v>0.539865056245445</v>
+      </c>
+      <c r="F29" t="n" s="88">
+        <v>0.46631964379217905</v>
+      </c>
+      <c r="G29" t="n" s="89">
+        <v>2.6875</v>
+      </c>
+      <c r="H29" t="n" s="90">
+        <v>1.3545026464923717</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="69">
-        <v>35</v>
+      <c r="A30" t="s" s="79">
+        <v>20</v>
+      </c>
+      <c r="B30" t="n" s="84">
+        <v>32.0</v>
+      </c>
+      <c r="C30" t="n" s="85">
+        <v>0.6701273328307743</v>
+      </c>
+      <c r="D30" t="n" s="86">
+        <v>0.6625492996389604</v>
+      </c>
+      <c r="E30" t="n" s="87">
+        <v>0.6555465075074984</v>
+      </c>
+      <c r="F30" t="n" s="88">
+        <v>0.5879579822442642</v>
+      </c>
+      <c r="G30" t="n" s="89">
+        <v>2.25</v>
+      </c>
+      <c r="H30" t="n" s="90">
+        <v>1.1913667943625412</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31"/>
-      <c r="B31" t="s" s="83">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s" s="83">
-        <v>37</v>
-      </c>
-      <c r="D31" t="s" s="83">
-        <v>38</v>
-      </c>
-      <c r="E31" t="s" s="83">
-        <v>39</v>
-      </c>
-      <c r="F31" t="s" s="83">
-        <v>40</v>
-      </c>
-      <c r="G31" t="s" s="83">
-        <v>9</v>
-      </c>
-      <c r="H31" t="s" s="83">
-        <v>10</v>
+      <c r="A31" t="s" s="79">
+        <v>21</v>
+      </c>
+      <c r="B31" t="n" s="84">
+        <v>32.0</v>
+      </c>
+      <c r="C31" t="n" s="85">
+        <v>0.7225584804453857</v>
+      </c>
+      <c r="D31" t="n" s="86">
+        <v>0.7099156697159416</v>
+      </c>
+      <c r="E31" t="n" s="87">
+        <v>0.7003336910099952</v>
+      </c>
+      <c r="F31" t="n" s="88">
+        <v>0.6540238714333032</v>
+      </c>
+      <c r="G31" t="n" s="89">
+        <v>2.15625</v>
+      </c>
+      <c r="H31" t="n" s="90">
+        <v>1.1390254748064526</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>32.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.5120321799626861</v>
+        <v>0.33188895128202667</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.4759473650711495</v>
+        <v>0.3653571407120155</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.47103432310942345</v>
+        <v>0.3033014898975949</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.4176329775305104</v>
+        <v>0.2436765081586211</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>2.6875</v>
+        <v>3.65625</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.3545026464923717</v>
+        <v>0.8654432017665117</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>32.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.6402869392385653</v>
+        <v>0.6671512045664219</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.6284961685546621</v>
+        <v>0.6765864222069841</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.6242564985485416</v>
+        <v>0.6614439763483434</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.5730970174303472</v>
+        <v>0.5938579705868864</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.1913667943625412</v>
+        <v>1.0701220913160239</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>32.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.6679460177813364</v>
+        <v>0.4097809750595514</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.6607451688900676</v>
+        <v>0.44980584362166376</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.6583047828749142</v>
+        <v>0.3880636273233876</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.6061767828261716</v>
+        <v>0.32508543069798645</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.5</v>
+        <v>3.0625</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.1639753904947558</v>
+        <v>0.87758833761769</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>32.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.6795900780351637</v>
+        <v>0.7172954232431584</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.6624446540470862</v>
+        <v>0.7336381277027837</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.6583506379983448</v>
+        <v>0.7225385240930029</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.6208719767420644</v>
+        <v>0.6628876806200749</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>2.15625</v>
+        <v>2.25</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.1390254748064526</v>
+        <v>0.915810939779251</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>32.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.7201549561318541</v>
+        <v>0.8210640550513032</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.72958316742163</v>
+        <v>0.8241632773290285</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.7281016364240737</v>
+        <v>0.8246575448030659</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.6785411878088381</v>
+        <v>0.7735283317534634</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.25</v>
+        <v>2.9375</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>0.915810939779251</v>
+        <v>1.1341473989656923</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>32.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6864181324311763</v>
+        <v>0.6595492044758784</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6921182387124931</v>
+        <v>0.653562564928084</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6861079933921479</v>
+        <v>0.6260724502563625</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.6324853446292604</v>
+        <v>0.5593327325619575</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.625</v>
+        <v>2.5625</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.0701220913160239</v>
+        <v>1.3897667476606375</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>32.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.8090468117766403</v>
+        <v>0.5867607080212981</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.8073040115491489</v>
+        <v>0.5810091272587927</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.8092571164802017</v>
+        <v>0.556285148395646</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.7707052245470347</v>
+        <v>0.49896952768972713</v>
       </c>
       <c r="G38" t="n" s="89">
-        <v>2.9375</v>
+        <v>3.21875</v>
       </c>
       <c r="H38" t="n" s="90">
-        <v>1.1341473989656923</v>
+        <v>1.0993949949125246</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="79">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B39" t="n" s="84">
         <v>32.0</v>
       </c>
       <c r="C39" t="n" s="85">
-        <v>0.6645076098579229</v>
+        <v>0.6079295246642695</v>
       </c>
       <c r="D39" t="n" s="86">
-        <v>0.6573291390890629</v>
+        <v>0.5893072993073147</v>
       </c>
       <c r="E39" t="n" s="87">
-        <v>0.6518867395825548</v>
+        <v>0.5897546574715591</v>
       </c>
       <c r="F39" t="n" s="88">
-        <v>0.5887081524106274</v>
+        <v>0.5185430912232298</v>
       </c>
       <c r="G39" t="n" s="89">
-        <v>2.5625</v>
+        <v>2.65625</v>
       </c>
       <c r="H39" t="n" s="90">
-        <v>1.3897667476606375</v>
+        <v>1.1530989102302514</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="79">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B40" t="n" s="84">
         <v>32.0</v>
       </c>
       <c r="C40" t="n" s="85">
-        <v>0.40498614601237065</v>
+        <v>0.7248544874206778</v>
       </c>
       <c r="D40" t="n" s="86">
-        <v>0.4343178291039078</v>
+        <v>0.7269476165250031</v>
       </c>
       <c r="E40" t="n" s="87">
-        <v>0.3882230917725032</v>
+        <v>0.7050869463645789</v>
       </c>
       <c r="F40" t="n" s="88">
-        <v>0.33861251338187104</v>
+        <v>0.6663950875065843</v>
       </c>
       <c r="G40" t="n" s="89">
-        <v>3.0625</v>
+        <v>3.09375</v>
       </c>
       <c r="H40" t="n" s="90">
-        <v>0.87758833761769</v>
+        <v>0.9954533737723926</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="79">
-        <v>27</v>
-      </c>
-      <c r="B41" t="n" s="84">
-        <v>32.0</v>
-      </c>
-      <c r="C41" t="n" s="85">
-        <v>0.32831382676086013</v>
-      </c>
-      <c r="D41" t="n" s="86">
-        <v>0.35352914102469357</v>
-      </c>
-      <c r="E41" t="n" s="87">
-        <v>0.30846605320795756</v>
-      </c>
-      <c r="F41" t="n" s="88">
-        <v>0.25912539830876985</v>
-      </c>
-      <c r="G41" t="n" s="89">
-        <v>3.65625</v>
-      </c>
-      <c r="H41" t="n" s="90">
-        <v>0.8654432017665117</v>
+      <c r="A41" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="79">
-        <v>28</v>
-      </c>
-      <c r="B42" t="n" s="84">
-        <v>32.0</v>
-      </c>
-      <c r="C42" t="n" s="85">
-        <v>0.6210857481960402</v>
-      </c>
-      <c r="D42" t="n" s="86">
-        <v>0.6191782475933618</v>
-      </c>
-      <c r="E42" t="n" s="87">
-        <v>0.610111291223646</v>
-      </c>
-      <c r="F42" t="n" s="88">
-        <v>0.5572266829327487</v>
-      </c>
-      <c r="G42" t="n" s="89">
-        <v>3.21875</v>
-      </c>
-      <c r="H42" t="n" s="90">
-        <v>1.0993949949125246</v>
+      <c r="A42" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="79">
-        <v>29</v>
-      </c>
-      <c r="B43" t="n" s="84">
-        <v>32.0</v>
-      </c>
-      <c r="C43" t="n" s="85">
-        <v>0.7550840669140769</v>
-      </c>
-      <c r="D43" t="n" s="86">
-        <v>0.7581393441918074</v>
-      </c>
-      <c r="E43" t="n" s="87">
-        <v>0.7552181876687387</v>
-      </c>
-      <c r="F43" t="n" s="88">
-        <v>0.7139923405703011</v>
-      </c>
-      <c r="G43" t="n" s="89">
-        <v>2.96875</v>
-      </c>
-      <c r="H43" t="n" s="90">
-        <v>0.9994958406536122</v>
+      <c r="A43" t="s" s="94">
+        <v>37</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="79">
-        <v>30</v>
-      </c>
-      <c r="B44" t="n" s="84">
-        <v>32.0</v>
-      </c>
-      <c r="C44" t="n" s="85">
-        <v>0.7515167840757306</v>
-      </c>
-      <c r="D44" t="n" s="86">
-        <v>0.7608649621323312</v>
-      </c>
-      <c r="E44" t="n" s="87">
-        <v>0.7533926846307905</v>
-      </c>
-      <c r="F44" t="n" s="88">
-        <v>0.7125834709482812</v>
-      </c>
-      <c r="G44" t="n" s="89">
-        <v>2.78125</v>
-      </c>
-      <c r="H44" t="n" s="90">
-        <v>0.9413228509270448</v>
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s" s="108">
+        <v>39</v>
+      </c>
+      <c r="D44" t="s" s="108">
+        <v>40</v>
+      </c>
+      <c r="E44" t="s" s="108">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s" s="108">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s" s="108">
+        <v>43</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="79">
-        <v>31</v>
-      </c>
-      <c r="B45" t="n" s="84">
-        <v>32.0</v>
-      </c>
-      <c r="C45" t="n" s="85">
-        <v>0.45521502659547103</v>
-      </c>
-      <c r="D45" t="n" s="86">
-        <v>0.48141724475990294</v>
-      </c>
-      <c r="E45" t="n" s="87">
-        <v>0.4640956870432871</v>
-      </c>
-      <c r="F45" t="n" s="88">
-        <v>0.39038328173487</v>
-      </c>
-      <c r="G45" t="n" s="89">
-        <v>3.96875</v>
-      </c>
-      <c r="H45" t="n" s="90">
-        <v>0.89746506805953</v>
+      <c r="A45" t="s" s="104">
+        <v>18</v>
+      </c>
+      <c r="B45" t="n" s="109">
+        <v>0.15625</v>
+      </c>
+      <c r="C45" t="n" s="110">
+        <v>0.46875</v>
+      </c>
+      <c r="D45" t="n" s="111">
+        <v>0.1875</v>
+      </c>
+      <c r="E45" t="n" s="112">
+        <v>0.09375</v>
+      </c>
+      <c r="F45" t="n" s="113">
+        <v>0.09375</v>
+      </c>
+      <c r="G45" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="79">
-        <v>32</v>
-      </c>
-      <c r="B46" t="n" s="84">
-        <v>32.0</v>
-      </c>
-      <c r="C46" t="n" s="85">
-        <v>0.6684994646277789</v>
-      </c>
-      <c r="D46" t="n" s="86">
-        <v>0.6746843170057243</v>
-      </c>
-      <c r="E46" t="n" s="87">
-        <v>0.6563364202130667</v>
-      </c>
-      <c r="F46" t="n" s="88">
-        <v>0.6162860514831862</v>
-      </c>
-      <c r="G46" t="n" s="89">
-        <v>2.96875</v>
-      </c>
-      <c r="H46" t="n" s="90">
-        <v>0.9994958406536122</v>
+      <c r="A46" t="s" s="104">
+        <v>19</v>
+      </c>
+      <c r="B46" t="n" s="109">
+        <v>0.28125</v>
+      </c>
+      <c r="C46" t="n" s="110">
+        <v>0.1875</v>
+      </c>
+      <c r="D46" t="n" s="111">
+        <v>0.15625</v>
+      </c>
+      <c r="E46" t="n" s="112">
+        <v>0.3125</v>
+      </c>
+      <c r="F46" t="n" s="113">
+        <v>0.0625</v>
+      </c>
+      <c r="G46" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="79">
-        <v>33</v>
-      </c>
-      <c r="B47" t="n" s="84">
-        <v>32.0</v>
-      </c>
-      <c r="C47" t="n" s="85">
-        <v>0.7570987629882973</v>
-      </c>
-      <c r="D47" t="n" s="86">
-        <v>0.7601550255679932</v>
-      </c>
-      <c r="E47" t="n" s="87">
-        <v>0.7458258775702844</v>
-      </c>
-      <c r="F47" t="n" s="88">
-        <v>0.7164681091111781</v>
-      </c>
-      <c r="G47" t="n" s="89">
-        <v>3.09375</v>
-      </c>
-      <c r="H47" t="n" s="90">
-        <v>0.9954533737723926</v>
+      <c r="A47" t="s" s="104">
+        <v>20</v>
+      </c>
+      <c r="B47" t="n" s="109">
+        <v>0.40625</v>
+      </c>
+      <c r="C47" t="n" s="110">
+        <v>0.09375</v>
+      </c>
+      <c r="D47" t="n" s="111">
+        <v>0.375</v>
+      </c>
+      <c r="E47" t="n" s="112">
+        <v>0.09375</v>
+      </c>
+      <c r="F47" t="n" s="113">
+        <v>0.03125</v>
+      </c>
+      <c r="G47" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="79">
-        <v>34</v>
-      </c>
-      <c r="B48" t="n" s="84">
-        <v>32.0</v>
-      </c>
-      <c r="C48" t="n" s="85">
-        <v>0.6047184744291485</v>
-      </c>
-      <c r="D48" t="n" s="86">
-        <v>0.5871822894237658</v>
-      </c>
-      <c r="E48" t="n" s="87">
-        <v>0.5857576399511227</v>
-      </c>
-      <c r="F48" t="n" s="88">
-        <v>0.5354430436761582</v>
-      </c>
-      <c r="G48" t="n" s="89">
-        <v>2.65625</v>
-      </c>
-      <c r="H48" t="n" s="90">
-        <v>1.1530989102302514</v>
+      <c r="A48" t="s" s="104">
+        <v>21</v>
+      </c>
+      <c r="B48" t="n" s="109">
+        <v>0.375</v>
+      </c>
+      <c r="C48" t="n" s="110">
+        <v>0.28125</v>
+      </c>
+      <c r="D48" t="n" s="111">
+        <v>0.15625</v>
+      </c>
+      <c r="E48" t="n" s="112">
+        <v>0.1875</v>
+      </c>
+      <c r="F48" t="n" s="113">
+        <v>0.0</v>
+      </c>
+      <c r="G48" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s">
-        <v>1</v>
+      <c r="A49" t="s" s="104">
+        <v>22</v>
+      </c>
+      <c r="B49" t="n" s="109">
+        <v>0.0</v>
+      </c>
+      <c r="C49" t="n" s="110">
+        <v>0.09375</v>
+      </c>
+      <c r="D49" t="n" s="111">
+        <v>0.3125</v>
+      </c>
+      <c r="E49" t="n" s="112">
+        <v>0.4375</v>
+      </c>
+      <c r="F49" t="n" s="113">
+        <v>0.15625</v>
+      </c>
+      <c r="G49" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s">
-        <v>1</v>
+      <c r="A50" t="s" s="104">
+        <v>23</v>
+      </c>
+      <c r="B50" t="n" s="109">
+        <v>0.125</v>
+      </c>
+      <c r="C50" t="n" s="110">
+        <v>0.40625</v>
+      </c>
+      <c r="D50" t="n" s="111">
+        <v>0.21875</v>
+      </c>
+      <c r="E50" t="n" s="112">
+        <v>0.21875</v>
+      </c>
+      <c r="F50" t="n" s="113">
+        <v>0.03125</v>
+      </c>
+      <c r="G50" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="94">
-        <v>41</v>
+      <c r="A51" t="s" s="104">
+        <v>24</v>
+      </c>
+      <c r="B51" t="n" s="109">
+        <v>0.0</v>
+      </c>
+      <c r="C51" t="n" s="110">
+        <v>0.28125</v>
+      </c>
+      <c r="D51" t="n" s="111">
+        <v>0.4375</v>
+      </c>
+      <c r="E51" t="n" s="112">
+        <v>0.21875</v>
+      </c>
+      <c r="F51" t="n" s="113">
+        <v>0.0625</v>
+      </c>
+      <c r="G51" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52"/>
-      <c r="B52" t="s" s="108">
-        <v>42</v>
-      </c>
-      <c r="C52" t="s" s="108">
-        <v>43</v>
-      </c>
-      <c r="D52" t="s" s="108">
-        <v>44</v>
-      </c>
-      <c r="E52" t="s" s="108">
-        <v>45</v>
-      </c>
-      <c r="F52" t="s" s="108">
-        <v>46</v>
-      </c>
-      <c r="G52" t="s" s="108">
-        <v>47</v>
+      <c r="A52" t="s" s="104">
+        <v>25</v>
+      </c>
+      <c r="B52" t="n" s="109">
+        <v>0.15625</v>
+      </c>
+      <c r="C52" t="n" s="110">
+        <v>0.5625</v>
+      </c>
+      <c r="D52" t="n" s="111">
+        <v>0.1875</v>
+      </c>
+      <c r="E52" t="n" s="112">
+        <v>0.0625</v>
+      </c>
+      <c r="F52" t="n" s="113">
+        <v>0.03125</v>
+      </c>
+      <c r="G52" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.28125</v>
+        <v>0.03125</v>
       </c>
       <c r="C53" t="n" s="110">
+        <v>0.4375</v>
+      </c>
+      <c r="D53" t="n" s="111">
+        <v>0.21875</v>
+      </c>
+      <c r="E53" t="n" s="112">
         <v>0.1875</v>
       </c>
-      <c r="D53" t="n" s="111">
-        <v>0.15625</v>
-      </c>
-      <c r="E53" t="n" s="112">
-        <v>0.3125</v>
-      </c>
       <c r="F53" t="n" s="113">
-        <v>0.0625</v>
+        <v>0.125</v>
       </c>
       <c r="G53" t="n" s="114">
         <v>0.0</v>
@@ -3579,22 +3531,22 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.40625</v>
+        <v>0.25</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.09375</v>
+        <v>0.34375</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.375</v>
+        <v>0.15625</v>
       </c>
       <c r="E54" t="n" s="112">
         <v>0.09375</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.03125</v>
+        <v>0.15625</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
@@ -3602,22 +3554,22 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="104">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B55" t="n" s="109">
-        <v>0.15625</v>
+        <v>0.09375</v>
       </c>
       <c r="C55" t="n" s="110">
-        <v>0.46875</v>
+        <v>0.09375</v>
       </c>
       <c r="D55" t="n" s="111">
-        <v>0.1875</v>
+        <v>0.4375</v>
       </c>
       <c r="E55" t="n" s="112">
-        <v>0.09375</v>
+        <v>0.25</v>
       </c>
       <c r="F55" t="n" s="113">
-        <v>0.09375</v>
+        <v>0.125</v>
       </c>
       <c r="G55" t="n" s="114">
         <v>0.0</v>
@@ -3625,22 +3577,22 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="104">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B56" t="n" s="109">
-        <v>0.375</v>
+        <v>0.1875</v>
       </c>
       <c r="C56" t="n" s="110">
-        <v>0.28125</v>
+        <v>0.25</v>
       </c>
       <c r="D56" t="n" s="111">
+        <v>0.34375</v>
+      </c>
+      <c r="E56" t="n" s="112">
         <v>0.15625</v>
       </c>
-      <c r="E56" t="n" s="112">
-        <v>0.1875</v>
-      </c>
       <c r="F56" t="n" s="113">
-        <v>0.0</v>
+        <v>0.0625</v>
       </c>
       <c r="G56" t="n" s="114">
         <v>0.0</v>
@@ -3648,300 +3600,24 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="104">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B57" t="n" s="109">
-        <v>0.15625</v>
+        <v>0.0625</v>
       </c>
       <c r="C57" t="n" s="110">
-        <v>0.5625</v>
+        <v>0.1875</v>
       </c>
       <c r="D57" t="n" s="111">
-        <v>0.1875</v>
+        <v>0.40625</v>
       </c>
       <c r="E57" t="n" s="112">
+        <v>0.28125</v>
+      </c>
+      <c r="F57" t="n" s="113">
         <v>0.0625</v>
       </c>
-      <c r="F57" t="n" s="113">
-        <v>0.03125</v>
-      </c>
       <c r="G57" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="104">
-        <v>23</v>
-      </c>
-      <c r="B58" t="n" s="109">
-        <v>0.125</v>
-      </c>
-      <c r="C58" t="n" s="110">
-        <v>0.40625</v>
-      </c>
-      <c r="D58" t="n" s="111">
-        <v>0.21875</v>
-      </c>
-      <c r="E58" t="n" s="112">
-        <v>0.21875</v>
-      </c>
-      <c r="F58" t="n" s="113">
-        <v>0.03125</v>
-      </c>
-      <c r="G58" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="104">
-        <v>24</v>
-      </c>
-      <c r="B59" t="n" s="109">
-        <v>0.03125</v>
-      </c>
-      <c r="C59" t="n" s="110">
-        <v>0.4375</v>
-      </c>
-      <c r="D59" t="n" s="111">
-        <v>0.21875</v>
-      </c>
-      <c r="E59" t="n" s="112">
-        <v>0.1875</v>
-      </c>
-      <c r="F59" t="n" s="113">
-        <v>0.125</v>
-      </c>
-      <c r="G59" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="104">
-        <v>25</v>
-      </c>
-      <c r="B60" t="n" s="109">
-        <v>0.25</v>
-      </c>
-      <c r="C60" t="n" s="110">
-        <v>0.34375</v>
-      </c>
-      <c r="D60" t="n" s="111">
-        <v>0.15625</v>
-      </c>
-      <c r="E60" t="n" s="112">
-        <v>0.09375</v>
-      </c>
-      <c r="F60" t="n" s="113">
-        <v>0.15625</v>
-      </c>
-      <c r="G60" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="104">
-        <v>26</v>
-      </c>
-      <c r="B61" t="n" s="109">
-        <v>0.0</v>
-      </c>
-      <c r="C61" t="n" s="110">
-        <v>0.28125</v>
-      </c>
-      <c r="D61" t="n" s="111">
-        <v>0.4375</v>
-      </c>
-      <c r="E61" t="n" s="112">
-        <v>0.21875</v>
-      </c>
-      <c r="F61" t="n" s="113">
-        <v>0.0625</v>
-      </c>
-      <c r="G61" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="104">
-        <v>27</v>
-      </c>
-      <c r="B62" t="n" s="109">
-        <v>0.0</v>
-      </c>
-      <c r="C62" t="n" s="110">
-        <v>0.09375</v>
-      </c>
-      <c r="D62" t="n" s="111">
-        <v>0.3125</v>
-      </c>
-      <c r="E62" t="n" s="112">
-        <v>0.4375</v>
-      </c>
-      <c r="F62" t="n" s="113">
-        <v>0.15625</v>
-      </c>
-      <c r="G62" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="104">
-        <v>28</v>
-      </c>
-      <c r="B63" t="n" s="109">
-        <v>0.09375</v>
-      </c>
-      <c r="C63" t="n" s="110">
-        <v>0.09375</v>
-      </c>
-      <c r="D63" t="n" s="111">
-        <v>0.4375</v>
-      </c>
-      <c r="E63" t="n" s="112">
-        <v>0.25</v>
-      </c>
-      <c r="F63" t="n" s="113">
-        <v>0.125</v>
-      </c>
-      <c r="G63" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="104">
-        <v>29</v>
-      </c>
-      <c r="B64" t="n" s="109">
-        <v>0.0</v>
-      </c>
-      <c r="C64" t="n" s="110">
-        <v>0.40625</v>
-      </c>
-      <c r="D64" t="n" s="111">
-        <v>0.3125</v>
-      </c>
-      <c r="E64" t="n" s="112">
-        <v>0.1875</v>
-      </c>
-      <c r="F64" t="n" s="113">
-        <v>0.09375</v>
-      </c>
-      <c r="G64" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="104">
-        <v>30</v>
-      </c>
-      <c r="B65" t="n" s="109">
-        <v>0.0625</v>
-      </c>
-      <c r="C65" t="n" s="110">
-        <v>0.3125</v>
-      </c>
-      <c r="D65" t="n" s="111">
-        <v>0.46875</v>
-      </c>
-      <c r="E65" t="n" s="112">
-        <v>0.09375</v>
-      </c>
-      <c r="F65" t="n" s="113">
-        <v>0.0625</v>
-      </c>
-      <c r="G65" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="104">
-        <v>31</v>
-      </c>
-      <c r="B66" t="n" s="109">
-        <v>0.0</v>
-      </c>
-      <c r="C66" t="n" s="110">
-        <v>0.0625</v>
-      </c>
-      <c r="D66" t="n" s="111">
-        <v>0.21875</v>
-      </c>
-      <c r="E66" t="n" s="112">
-        <v>0.40625</v>
-      </c>
-      <c r="F66" t="n" s="113">
-        <v>0.3125</v>
-      </c>
-      <c r="G66" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="104">
-        <v>32</v>
-      </c>
-      <c r="B67" t="n" s="109">
-        <v>0.0625</v>
-      </c>
-      <c r="C67" t="n" s="110">
-        <v>0.3125</v>
-      </c>
-      <c r="D67" t="n" s="111">
-        <v>0.21875</v>
-      </c>
-      <c r="E67" t="n" s="112">
-        <v>0.40625</v>
-      </c>
-      <c r="F67" t="n" s="113">
-        <v>0.0</v>
-      </c>
-      <c r="G67" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="104">
-        <v>33</v>
-      </c>
-      <c r="B68" t="n" s="109">
-        <v>0.0625</v>
-      </c>
-      <c r="C68" t="n" s="110">
-        <v>0.1875</v>
-      </c>
-      <c r="D68" t="n" s="111">
-        <v>0.40625</v>
-      </c>
-      <c r="E68" t="n" s="112">
-        <v>0.28125</v>
-      </c>
-      <c r="F68" t="n" s="113">
-        <v>0.0625</v>
-      </c>
-      <c r="G68" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="104">
-        <v>34</v>
-      </c>
-      <c r="B69" t="n" s="109">
-        <v>0.1875</v>
-      </c>
-      <c r="C69" t="n" s="110">
-        <v>0.25</v>
-      </c>
-      <c r="D69" t="n" s="111">
-        <v>0.34375</v>
-      </c>
-      <c r="E69" t="n" s="112">
-        <v>0.15625</v>
-      </c>
-      <c r="F69" t="n" s="113">
-        <v>0.0625</v>
-      </c>
-      <c r="G69" t="n" s="114">
         <v>0.0</v>
       </c>
     </row>
@@ -3972,7 +3648,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="116">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -4095,28 +3771,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="172">
-        <v>0.7793505412156537</v>
+        <v>0.8441948290887964</v>
       </c>
       <c r="C11" t="n" s="173">
-        <v>0.7802141815168491</v>
+        <v>0.8453413400551133</v>
       </c>
       <c r="D11" t="n" s="174">
-        <v>0.7096454512923842</v>
+        <v>0.7944142748133094</v>
       </c>
       <c r="E11" t="n" s="175">
-        <v>0.5419766279648593</v>
+        <v>0.6456351926409094</v>
       </c>
       <c r="F11" t="n" s="176">
-        <v>3.5498840958051217</v>
+        <v>5.4658519630026134</v>
       </c>
       <c r="G11" t="n" s="177">
-        <v>0.06798819944321062</v>
+        <v>0.046729912165143</v>
       </c>
       <c r="H11" t="n" s="178">
-        <v>0.004664742837046711</v>
+        <v>0.006259312477902998</v>
       </c>
       <c r="I11" t="n" s="179">
-        <v>0.5645767526705296</v>
+        <v>0.6496752435470525</v>
       </c>
     </row>
     <row r="12">
@@ -4124,28 +3800,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="172">
-        <v>0.8252652854977263</v>
+        <v>0.7793505412156537</v>
       </c>
       <c r="C12" t="n" s="173">
-        <v>0.8285056685123666</v>
+        <v>0.7802141815168491</v>
       </c>
       <c r="D12" t="n" s="174">
-        <v>0.7761108573186121</v>
+        <v>0.7096454512923842</v>
       </c>
       <c r="E12" t="n" s="175">
-        <v>0.6169118856721316</v>
+        <v>0.5419766279648593</v>
       </c>
       <c r="F12" t="n" s="176">
-        <v>4.8310965226982505</v>
+        <v>3.5498840958051217</v>
       </c>
       <c r="G12" t="n" s="177">
-        <v>0.053309049080259</v>
+        <v>0.06798819944321062</v>
       </c>
       <c r="H12" t="n" s="178">
-        <v>0.009414463863953686</v>
+        <v>0.004664742837046711</v>
       </c>
       <c r="I12" t="n" s="179">
-        <v>0.596111026024813</v>
+        <v>0.5645767526705296</v>
       </c>
     </row>
     <row r="13">
@@ -4153,28 +3829,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="172">
-        <v>0.8441948290887964</v>
+        <v>0.8252652854977263</v>
       </c>
       <c r="C13" t="n" s="173">
-        <v>0.8453413400551133</v>
+        <v>0.8285056685123666</v>
       </c>
       <c r="D13" t="n" s="174">
-        <v>0.7944142748133094</v>
+        <v>0.7761108573186121</v>
       </c>
       <c r="E13" t="n" s="175">
-        <v>0.6456351926409094</v>
+        <v>0.6169118856721316</v>
       </c>
       <c r="F13" t="n" s="176">
-        <v>5.4658519630026134</v>
+        <v>4.8310965226982505</v>
       </c>
       <c r="G13" t="n" s="177">
-        <v>0.046729912165143</v>
+        <v>0.053309049080259</v>
       </c>
       <c r="H13" t="n" s="178">
-        <v>0.006259312477902998</v>
+        <v>0.009414463863953686</v>
       </c>
       <c r="I13" t="n" s="179">
-        <v>0.6496752435470525</v>
+        <v>0.596111026024813</v>
       </c>
     </row>
     <row r="14">
@@ -4218,25 +3894,25 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="183">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s" s="197">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s" s="197">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s" s="197">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s" s="197">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s" s="197">
         <v>36</v>
-      </c>
-      <c r="C18" t="s" s="197">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s" s="197">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s" s="197">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s" s="197">
-        <v>40</v>
       </c>
       <c r="G18" t="s" s="197">
         <v>9</v>
@@ -4253,22 +3929,22 @@
         <v>32.0</v>
       </c>
       <c r="C19" t="n" s="199">
-        <v>0.8840870570264803</v>
+        <v>0.7719218768595464</v>
       </c>
       <c r="D19" t="n" s="200">
-        <v>0.8732827283419357</v>
+        <v>0.7797766462359788</v>
       </c>
       <c r="E19" t="n" s="201">
-        <v>0.8343332933635238</v>
+        <v>0.6565483311843833</v>
       </c>
       <c r="F19" t="n" s="202">
-        <v>0.7613221680928014</v>
+        <v>0.6055532961725072</v>
       </c>
       <c r="G19" t="n" s="203">
-        <v>2.6875</v>
+        <v>2.5</v>
       </c>
       <c r="H19" t="n" s="204">
-        <v>1.3545026464923717</v>
+        <v>1.1639753904947558</v>
       </c>
     </row>
     <row r="20">
@@ -4279,22 +3955,22 @@
         <v>32.0</v>
       </c>
       <c r="C20" t="n" s="199">
-        <v>0.8061283948572868</v>
+        <v>0.8840870570264803</v>
       </c>
       <c r="D20" t="n" s="200">
-        <v>0.8056867474241509</v>
+        <v>0.8732827283419357</v>
       </c>
       <c r="E20" t="n" s="201">
-        <v>0.7060285315627043</v>
+        <v>0.8343332933635238</v>
       </c>
       <c r="F20" t="n" s="202">
-        <v>0.6537031830517539</v>
+        <v>0.7613221680928014</v>
       </c>
       <c r="G20" t="n" s="203">
-        <v>2.25</v>
+        <v>2.6875</v>
       </c>
       <c r="H20" t="n" s="204">
-        <v>1.1913667943625412</v>
+        <v>1.3545026464923717</v>
       </c>
     </row>
     <row r="21">
@@ -4305,22 +3981,22 @@
         <v>32.0</v>
       </c>
       <c r="C21" t="n" s="199">
-        <v>0.7719218768595464</v>
+        <v>0.8061283948572868</v>
       </c>
       <c r="D21" t="n" s="200">
-        <v>0.7797766462359788</v>
+        <v>0.8056867474241509</v>
       </c>
       <c r="E21" t="n" s="201">
-        <v>0.6565483311843833</v>
+        <v>0.7060285315627041</v>
       </c>
       <c r="F21" t="n" s="202">
-        <v>0.6055532961725072</v>
+        <v>0.6537031830517539</v>
       </c>
       <c r="G21" t="n" s="203">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="H21" t="n" s="204">
-        <v>1.1639753904947558</v>
+        <v>1.1913667943625412</v>
       </c>
     </row>
     <row r="22">
@@ -4337,7 +4013,7 @@
         <v>0.8669807935558591</v>
       </c>
       <c r="E22" t="n" s="201">
-        <v>0.8201561709341556</v>
+        <v>0.8201561709341554</v>
       </c>
       <c r="F22" t="n" s="202">
         <v>0.7540696835089735</v>
@@ -4361,28 +4037,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="208">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s" s="222">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s" s="222">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s" s="222">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s" s="222">
+        <v>41</v>
+      </c>
+      <c r="F26" t="s" s="222">
         <v>42</v>
       </c>
-      <c r="C26" t="s" s="222">
+      <c r="G26" t="s" s="222">
         <v>43</v>
-      </c>
-      <c r="D26" t="s" s="222">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s" s="222">
-        <v>45</v>
-      </c>
-      <c r="F26" t="s" s="222">
-        <v>46</v>
-      </c>
-      <c r="G26" t="s" s="222">
-        <v>47</v>
       </c>
     </row>
     <row r="27">
@@ -4390,19 +4066,19 @@
         <v>18</v>
       </c>
       <c r="B27" t="n" s="223">
-        <v>0.28125</v>
+        <v>0.15625</v>
       </c>
       <c r="C27" t="n" s="224">
+        <v>0.46875</v>
+      </c>
+      <c r="D27" t="n" s="225">
         <v>0.1875</v>
       </c>
-      <c r="D27" t="n" s="225">
-        <v>0.15625</v>
-      </c>
       <c r="E27" t="n" s="226">
-        <v>0.3125</v>
+        <v>0.09375</v>
       </c>
       <c r="F27" t="n" s="227">
-        <v>0.0625</v>
+        <v>0.09375</v>
       </c>
       <c r="G27" t="n" s="228">
         <v>0.0</v>
@@ -4413,19 +4089,19 @@
         <v>19</v>
       </c>
       <c r="B28" t="n" s="223">
-        <v>0.40625</v>
+        <v>0.28125</v>
       </c>
       <c r="C28" t="n" s="224">
-        <v>0.09375</v>
+        <v>0.1875</v>
       </c>
       <c r="D28" t="n" s="225">
-        <v>0.375</v>
+        <v>0.15625</v>
       </c>
       <c r="E28" t="n" s="226">
-        <v>0.09375</v>
+        <v>0.3125</v>
       </c>
       <c r="F28" t="n" s="227">
-        <v>0.03125</v>
+        <v>0.0625</v>
       </c>
       <c r="G28" t="n" s="228">
         <v>0.0</v>
@@ -4436,19 +4112,19 @@
         <v>20</v>
       </c>
       <c r="B29" t="n" s="223">
-        <v>0.15625</v>
+        <v>0.40625</v>
       </c>
       <c r="C29" t="n" s="224">
-        <v>0.46875</v>
+        <v>0.09375</v>
       </c>
       <c r="D29" t="n" s="225">
-        <v>0.1875</v>
+        <v>0.375</v>
       </c>
       <c r="E29" t="n" s="226">
         <v>0.09375</v>
       </c>
       <c r="F29" t="n" s="227">
-        <v>0.09375</v>
+        <v>0.03125</v>
       </c>
       <c r="G29" t="n" s="228">
         <v>0.0</v>
@@ -4504,7 +4180,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="230">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -4559,7 +4235,7 @@
         <v>0.8025276874219082</v>
       </c>
       <c r="C6" t="n" s="261">
-        <v>0.8203235995960669</v>
+        <v>0.8203235995960667</v>
       </c>
       <c r="D6" t="n" s="262">
         <v>0.40381564301500106</v>
@@ -4568,7 +4244,7 @@
         <v>4.064001058905627</v>
       </c>
       <c r="F6" t="n" s="264">
-        <v>0.0513752771169327</v>
+        <v>0.05137527711693272</v>
       </c>
       <c r="G6" t="n" s="265">
         <v>2.8489583333333335</v>
@@ -4577,7 +4253,7 @@
         <v>0.7505784806104926</v>
       </c>
       <c r="I6" t="n" s="267">
-        <v>0.39297028254243316</v>
+        <v>0.3929702825424332</v>
       </c>
     </row>
     <row r="7">
@@ -4627,28 +4303,28 @@
         <v>22</v>
       </c>
       <c r="B11" t="n" s="286">
-        <v>0.7368976433345059</v>
+        <v>0.8132814343005426</v>
       </c>
       <c r="C11" t="n" s="287">
-        <v>0.7340776504750393</v>
+        <v>0.8173274797788381</v>
       </c>
       <c r="D11" t="n" s="288">
-        <v>0.7405043763950014</v>
+        <v>0.8147075439123762</v>
       </c>
       <c r="E11" t="n" s="289">
-        <v>0.35571130575703236</v>
+        <v>0.47225525170922494</v>
       </c>
       <c r="F11" t="n" s="290">
-        <v>2.7604962568448403</v>
+        <v>4.474277131499026</v>
       </c>
       <c r="G11" t="n" s="291">
-        <v>0.06968005946714316</v>
+        <v>0.049508265372038736</v>
       </c>
       <c r="H11" t="n" s="292">
-        <v>0.029565191089863083</v>
+        <v>0.03520735514251153</v>
       </c>
       <c r="I11" t="n" s="293">
-        <v>0.34951159866977355</v>
+        <v>0.5266812464961457</v>
       </c>
     </row>
     <row r="12">
@@ -4685,28 +4361,28 @@
         <v>24</v>
       </c>
       <c r="B13" t="n" s="286">
-        <v>0.7211802558267283</v>
+        <v>0.8039654234419391</v>
       </c>
       <c r="C13" t="n" s="287">
-        <v>0.7268662433073436</v>
+        <v>0.8020449554030017</v>
       </c>
       <c r="D13" t="n" s="288">
-        <v>0.7431534194524645</v>
+        <v>0.7997134086601105</v>
       </c>
       <c r="E13" t="n" s="289">
-        <v>0.3473615657603134</v>
+        <v>0.4476146463115286</v>
       </c>
       <c r="F13" t="n" s="290">
-        <v>2.6612098486429483</v>
+        <v>4.051652015415036</v>
       </c>
       <c r="G13" t="n" s="291">
-        <v>0.07511071608906905</v>
+        <v>0.05044648591618654</v>
       </c>
       <c r="H13" t="n" s="292">
-        <v>0.03399808631425389</v>
+        <v>0.04339292835287928</v>
       </c>
       <c r="I13" t="n" s="293">
-        <v>0.31385341761570845</v>
+        <v>0.5266812464961457</v>
       </c>
     </row>
     <row r="14">
@@ -4714,28 +4390,28 @@
         <v>25</v>
       </c>
       <c r="B14" t="n" s="286">
-        <v>0.7691684883815075</v>
+        <v>0.7368976433345059</v>
       </c>
       <c r="C14" t="n" s="287">
-        <v>0.7657672674824646</v>
+        <v>0.7340776504750393</v>
       </c>
       <c r="D14" t="n" s="288">
-        <v>0.7793847389569812</v>
+        <v>0.7405043763950014</v>
       </c>
       <c r="E14" t="n" s="289">
-        <v>0.3953508385839727</v>
+        <v>0.35571130575703236</v>
       </c>
       <c r="F14" t="n" s="290">
-        <v>3.2692581401924126</v>
+        <v>2.7604962568448403</v>
       </c>
       <c r="G14" t="n" s="291">
-        <v>0.06316616036560996</v>
+        <v>0.06968005946714316</v>
       </c>
       <c r="H14" t="n" s="292">
-        <v>0.03828675231796332</v>
+        <v>0.029565191089863083</v>
       </c>
       <c r="I14" t="n" s="293">
-        <v>0.3871344546523836</v>
+        <v>0.3495115986697736</v>
       </c>
     </row>
     <row r="15">
@@ -4743,28 +4419,28 @@
         <v>26</v>
       </c>
       <c r="B15" t="n" s="286">
-        <v>0.8039654234419391</v>
+        <v>0.7211802558267283</v>
       </c>
       <c r="C15" t="n" s="287">
-        <v>0.8020449554030017</v>
+        <v>0.7268662433073436</v>
       </c>
       <c r="D15" t="n" s="288">
-        <v>0.7997134086601105</v>
+        <v>0.7431534194524645</v>
       </c>
       <c r="E15" t="n" s="289">
-        <v>0.4476146463115286</v>
+        <v>0.3473615657603134</v>
       </c>
       <c r="F15" t="n" s="290">
-        <v>4.051652015415036</v>
+        <v>2.6612098486429483</v>
       </c>
       <c r="G15" t="n" s="291">
-        <v>0.05044648591618654</v>
+        <v>0.07511071608906905</v>
       </c>
       <c r="H15" t="n" s="292">
-        <v>0.04339292835287928</v>
+        <v>0.033998086314253884</v>
       </c>
       <c r="I15" t="n" s="293">
-        <v>0.5266812464961457</v>
+        <v>0.3138534176157084</v>
       </c>
     </row>
     <row r="16">
@@ -4772,28 +4448,28 @@
         <v>27</v>
       </c>
       <c r="B16" t="n" s="286">
-        <v>0.8132814343005426</v>
+        <v>0.7691684883815075</v>
       </c>
       <c r="C16" t="n" s="287">
-        <v>0.8173274797788381</v>
+        <v>0.7657672674824646</v>
       </c>
       <c r="D16" t="n" s="288">
-        <v>0.8147075439123761</v>
+        <v>0.7793847389569813</v>
       </c>
       <c r="E16" t="n" s="289">
-        <v>0.47225525170922494</v>
+        <v>0.3953508385839727</v>
       </c>
       <c r="F16" t="n" s="290">
-        <v>4.474277131499026</v>
+        <v>3.2692581401924126</v>
       </c>
       <c r="G16" t="n" s="291">
-        <v>0.049508265372038736</v>
+        <v>0.06316616036560999</v>
       </c>
       <c r="H16" t="n" s="292">
-        <v>0.03520735514251153</v>
+        <v>0.038286752317963316</v>
       </c>
       <c r="I16" t="n" s="293">
-        <v>0.5266812464961457</v>
+        <v>0.3871344546523836</v>
       </c>
     </row>
     <row r="17">
@@ -4808,25 +4484,25 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="297">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s" s="311">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s" s="311">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s" s="311">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s" s="311">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s" s="311">
         <v>36</v>
-      </c>
-      <c r="C20" t="s" s="311">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s" s="311">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s" s="311">
-        <v>39</v>
-      </c>
-      <c r="F20" t="s" s="311">
-        <v>40</v>
       </c>
       <c r="G20" t="s" s="311">
         <v>9</v>
@@ -4843,22 +4519,22 @@
         <v>32.0</v>
       </c>
       <c r="C21" t="n" s="313">
-        <v>0.8232035305636122</v>
+        <v>0.5051317199785116</v>
       </c>
       <c r="D21" t="n" s="314">
-        <v>0.8223758036122572</v>
+        <v>0.54854839845403</v>
       </c>
       <c r="E21" t="n" s="315">
-        <v>0.81352669794015</v>
+        <v>0.4129156921456523</v>
       </c>
       <c r="F21" t="n" s="316">
-        <v>0.7374187127107654</v>
+        <v>0.340901772627993</v>
       </c>
       <c r="G21" t="n" s="317">
-        <v>2.25</v>
+        <v>3.65625</v>
       </c>
       <c r="H21" t="n" s="318">
-        <v>0.915810939779251</v>
+        <v>0.8654432017665117</v>
       </c>
     </row>
     <row r="22">
@@ -4875,7 +4551,7 @@
         <v>0.7075081232293724</v>
       </c>
       <c r="E22" t="n" s="315">
-        <v>0.634138376571143</v>
+        <v>0.6341383765711428</v>
       </c>
       <c r="F22" t="n" s="316">
         <v>0.5759013669820666</v>
@@ -4895,22 +4571,22 @@
         <v>32.0</v>
       </c>
       <c r="C23" t="n" s="313">
-        <v>0.8538036018690195</v>
+        <v>0.5534901025066978</v>
       </c>
       <c r="D23" t="n" s="314">
-        <v>0.8419940482011722</v>
+        <v>0.6064430662761304</v>
       </c>
       <c r="E23" t="n" s="315">
-        <v>0.8313217682708851</v>
+        <v>0.49679040577597583</v>
       </c>
       <c r="F23" t="n" s="316">
-        <v>0.7563776031315198</v>
+        <v>0.3954863571694572</v>
       </c>
       <c r="G23" t="n" s="317">
-        <v>2.9375</v>
+        <v>3.0625</v>
       </c>
       <c r="H23" t="n" s="318">
-        <v>1.1341473989656923</v>
+        <v>0.87758833761769</v>
       </c>
     </row>
     <row r="24">
@@ -4921,22 +4597,22 @@
         <v>32.0</v>
       </c>
       <c r="C24" t="n" s="313">
-        <v>0.7798729147645662</v>
+        <v>0.8232035305636122</v>
       </c>
       <c r="D24" t="n" s="314">
-        <v>0.7292402028995612</v>
+        <v>0.8223758036122572</v>
       </c>
       <c r="E24" t="n" s="315">
-        <v>0.6661386578377412</v>
+        <v>0.81352669794015</v>
       </c>
       <c r="F24" t="n" s="316">
-        <v>0.601485979597236</v>
+        <v>0.7374187127107654</v>
       </c>
       <c r="G24" t="n" s="317">
-        <v>2.5625</v>
+        <v>2.25</v>
       </c>
       <c r="H24" t="n" s="318">
-        <v>1.3897667476606375</v>
+        <v>0.915810939779251</v>
       </c>
     </row>
     <row r="25">
@@ -4947,22 +4623,22 @@
         <v>32.0</v>
       </c>
       <c r="C25" t="n" s="313">
-        <v>0.5534901025066978</v>
+        <v>0.8538036018690195</v>
       </c>
       <c r="D25" t="n" s="314">
-        <v>0.6064430662761304</v>
+        <v>0.8419940482011722</v>
       </c>
       <c r="E25" t="n" s="315">
-        <v>0.49679040577597583</v>
+        <v>0.8313217682708851</v>
       </c>
       <c r="F25" t="n" s="316">
-        <v>0.3954863571694572</v>
+        <v>0.7563776031315198</v>
       </c>
       <c r="G25" t="n" s="317">
-        <v>3.0625</v>
+        <v>2.9375</v>
       </c>
       <c r="H25" t="n" s="318">
-        <v>0.87758833761769</v>
+        <v>1.1341473989656923</v>
       </c>
     </row>
     <row r="26">
@@ -4973,22 +4649,22 @@
         <v>32.0</v>
       </c>
       <c r="C26" t="n" s="313">
-        <v>0.5051317199785116</v>
+        <v>0.7798729147645662</v>
       </c>
       <c r="D26" t="n" s="314">
-        <v>0.54854839845403</v>
+        <v>0.7292402028995612</v>
       </c>
       <c r="E26" t="n" s="315">
-        <v>0.41291569214565244</v>
+        <v>0.6661386578377411</v>
       </c>
       <c r="F26" t="n" s="316">
-        <v>0.340901772627993</v>
+        <v>0.601485979597236</v>
       </c>
       <c r="G26" t="n" s="317">
-        <v>3.65625</v>
+        <v>2.5625</v>
       </c>
       <c r="H26" t="n" s="318">
-        <v>0.8654432017665117</v>
+        <v>1.3897667476606375</v>
       </c>
     </row>
     <row r="27">
@@ -5003,28 +4679,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="322">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s" s="336">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s" s="336">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s" s="336">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s" s="336">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s" s="336">
         <v>42</v>
       </c>
-      <c r="C30" t="s" s="336">
+      <c r="G30" t="s" s="336">
         <v>43</v>
-      </c>
-      <c r="D30" t="s" s="336">
-        <v>44</v>
-      </c>
-      <c r="E30" t="s" s="336">
-        <v>45</v>
-      </c>
-      <c r="F30" t="s" s="336">
-        <v>46</v>
-      </c>
-      <c r="G30" t="s" s="336">
-        <v>47</v>
       </c>
     </row>
     <row r="31">
@@ -5032,19 +4708,19 @@
         <v>22</v>
       </c>
       <c r="B31" t="n" s="337">
+        <v>0.0</v>
+      </c>
+      <c r="C31" t="n" s="338">
+        <v>0.09375</v>
+      </c>
+      <c r="D31" t="n" s="339">
+        <v>0.3125</v>
+      </c>
+      <c r="E31" t="n" s="340">
+        <v>0.4375</v>
+      </c>
+      <c r="F31" t="n" s="341">
         <v>0.15625</v>
-      </c>
-      <c r="C31" t="n" s="338">
-        <v>0.5625</v>
-      </c>
-      <c r="D31" t="n" s="339">
-        <v>0.1875</v>
-      </c>
-      <c r="E31" t="n" s="340">
-        <v>0.0625</v>
-      </c>
-      <c r="F31" t="n" s="341">
-        <v>0.03125</v>
       </c>
       <c r="G31" t="n" s="342">
         <v>0.0</v>
@@ -5078,19 +4754,19 @@
         <v>24</v>
       </c>
       <c r="B33" t="n" s="337">
-        <v>0.03125</v>
+        <v>0.0</v>
       </c>
       <c r="C33" t="n" s="338">
+        <v>0.28125</v>
+      </c>
+      <c r="D33" t="n" s="339">
         <v>0.4375</v>
       </c>
-      <c r="D33" t="n" s="339">
+      <c r="E33" t="n" s="340">
         <v>0.21875</v>
       </c>
-      <c r="E33" t="n" s="340">
-        <v>0.1875</v>
-      </c>
       <c r="F33" t="n" s="341">
-        <v>0.125</v>
+        <v>0.0625</v>
       </c>
       <c r="G33" t="n" s="342">
         <v>0.0</v>
@@ -5101,19 +4777,19 @@
         <v>25</v>
       </c>
       <c r="B34" t="n" s="337">
-        <v>0.25</v>
+        <v>0.15625</v>
       </c>
       <c r="C34" t="n" s="338">
-        <v>0.34375</v>
+        <v>0.5625</v>
       </c>
       <c r="D34" t="n" s="339">
-        <v>0.15625</v>
+        <v>0.1875</v>
       </c>
       <c r="E34" t="n" s="340">
-        <v>0.09375</v>
+        <v>0.0625</v>
       </c>
       <c r="F34" t="n" s="341">
-        <v>0.15625</v>
+        <v>0.03125</v>
       </c>
       <c r="G34" t="n" s="342">
         <v>0.0</v>
@@ -5124,19 +4800,19 @@
         <v>26</v>
       </c>
       <c r="B35" t="n" s="337">
-        <v>0.0</v>
+        <v>0.03125</v>
       </c>
       <c r="C35" t="n" s="338">
-        <v>0.28125</v>
+        <v>0.4375</v>
       </c>
       <c r="D35" t="n" s="339">
-        <v>0.4375</v>
+        <v>0.21875</v>
       </c>
       <c r="E35" t="n" s="340">
-        <v>0.21875</v>
+        <v>0.1875</v>
       </c>
       <c r="F35" t="n" s="341">
-        <v>0.0625</v>
+        <v>0.125</v>
       </c>
       <c r="G35" t="n" s="342">
         <v>0.0</v>
@@ -5147,16 +4823,16 @@
         <v>27</v>
       </c>
       <c r="B36" t="n" s="337">
-        <v>0.0</v>
+        <v>0.25</v>
       </c>
       <c r="C36" t="n" s="338">
+        <v>0.34375</v>
+      </c>
+      <c r="D36" t="n" s="339">
+        <v>0.15625</v>
+      </c>
+      <c r="E36" t="n" s="340">
         <v>0.09375</v>
-      </c>
-      <c r="D36" t="n" s="339">
-        <v>0.3125</v>
-      </c>
-      <c r="E36" t="n" s="340">
-        <v>0.4375</v>
       </c>
       <c r="F36" t="n" s="341">
         <v>0.15625</v>
@@ -5192,7 +4868,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="344">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5241,31 +4917,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="373">
-        <v>0.8585076168344953</v>
+        <v>0.7832673672717347</v>
       </c>
       <c r="B6" t="n" s="374">
-        <v>0.8589020099821797</v>
+        <v>0.7838146537584073</v>
       </c>
       <c r="C6" t="n" s="375">
-        <v>0.873292046188717</v>
+        <v>0.7098457500125595</v>
       </c>
       <c r="D6" t="n" s="376">
-        <v>0.46512922094165027</v>
+        <v>0.5472149478286036</v>
       </c>
       <c r="E6" t="n" s="377">
-        <v>6.087273177128191</v>
+        <v>3.625660422341826</v>
       </c>
       <c r="F6" t="n" s="378">
-        <v>0.038035127324765446</v>
+        <v>0.06553814899764743</v>
       </c>
       <c r="G6" t="n" s="379">
-        <v>3.09375</v>
+        <v>2.9895833333333335</v>
       </c>
       <c r="H6" t="n" s="380">
-        <v>0.7468250771449326</v>
+        <v>0.9059119842995185</v>
       </c>
       <c r="I6" t="n" s="381">
-        <v>0.43821984734075287</v>
+        <v>0.534832925992651</v>
       </c>
     </row>
     <row r="7">
@@ -5315,28 +4991,26 @@
         <v>28</v>
       </c>
       <c r="B11" t="n" s="400">
-        <v>0.8297660939764024</v>
+        <v>0.6920454545454546</v>
       </c>
       <c r="C11" t="n" s="401">
-        <v>0.8313185329277774</v>
+        <v>0.6969265734858385</v>
       </c>
       <c r="D11" t="n" s="402">
-        <v>0.8400333106240085</v>
+        <v>0.534832925992651</v>
       </c>
       <c r="E11" t="n" s="403">
-        <v>0.4509684414187961</v>
+        <v>0.534832925992651</v>
       </c>
       <c r="F11" t="n" s="404">
-        <v>4.9283335469915</v>
+        <v>2.299530452080971</v>
       </c>
       <c r="G11" t="n" s="405">
-        <v>0.04655078198263695</v>
-      </c>
-      <c r="H11" t="n" s="406">
-        <v>0.022072337951837967</v>
-      </c>
+        <v>0.10725556663411229</v>
+      </c>
+      <c r="H11" s="406"/>
       <c r="I11" t="n" s="407">
-        <v>0.43820618277480294</v>
+        <v>0.534832925992651</v>
       </c>
     </row>
     <row r="12">
@@ -5344,28 +5018,26 @@
         <v>29</v>
       </c>
       <c r="B12" t="n" s="400">
-        <v>0.8378399530424575</v>
+        <v>0.6743620899149452</v>
       </c>
       <c r="C12" t="n" s="401">
-        <v>0.8377127688457084</v>
+        <v>0.6765647128680021</v>
       </c>
       <c r="D12" t="n" s="402">
-        <v>0.8399461499835956</v>
+        <v>0.5112185835199983</v>
       </c>
       <c r="E12" t="n" s="403">
-        <v>0.4624577941522547</v>
+        <v>0.5112185835199983</v>
       </c>
       <c r="F12" t="n" s="404">
-        <v>5.1619142361808406</v>
+        <v>2.0918085928944663</v>
       </c>
       <c r="G12" t="n" s="405">
-        <v>0.04382377692456752</v>
-      </c>
-      <c r="H12" t="n" s="406">
-        <v>0.01639703751404578</v>
-      </c>
+        <v>0.11436680563624425</v>
+      </c>
+      <c r="H12" s="406"/>
       <c r="I12" t="n" s="407">
-        <v>0.43821984734075287</v>
+        <v>0.5112185835199983</v>
       </c>
     </row>
     <row r="13">
@@ -5373,561 +5045,247 @@
         <v>30</v>
       </c>
       <c r="B13" t="n" s="400">
-        <v>0.8281373322809786</v>
+        <v>0.7460159362549803</v>
       </c>
       <c r="C13" t="n" s="401">
-        <v>0.826993255608219</v>
+        <v>0.7465477841902035</v>
       </c>
       <c r="D13" t="n" s="402">
-        <v>0.8269500358742187</v>
+        <v>0.5955933339731616</v>
       </c>
       <c r="E13" t="n" s="403">
-        <v>0.4434200014032998</v>
+        <v>0.5955933339731616</v>
       </c>
       <c r="F13" t="n" s="404">
-        <v>4.780121483214888</v>
+        <v>2.94551689676468</v>
       </c>
       <c r="G13" t="n" s="405">
-        <v>0.04648767103893886</v>
-      </c>
-      <c r="H13" t="n" s="406">
-        <v>0.01410589889430949</v>
-      </c>
+        <v>0.08963895410927522</v>
+      </c>
+      <c r="H13" s="406"/>
       <c r="I13" t="n" s="407">
-        <v>0.43820618277480294</v>
+        <v>0.5955933339731615</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="395">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="411">
         <v>31</v>
       </c>
-      <c r="B14" t="n" s="400">
-        <v>0.8624933687002653</v>
-      </c>
-      <c r="C14" t="n" s="401">
-        <v>0.8647797868362982</v>
-      </c>
-      <c r="D14" t="n" s="402">
-        <v>0.8720949585877871</v>
-      </c>
-      <c r="E14" t="n" s="403">
-        <v>0.5159472805501684</v>
-      </c>
-      <c r="F14" t="n" s="404">
-        <v>6.395344058431334</v>
-      </c>
-      <c r="G14" t="n" s="405">
-        <v>0.038108896995525346</v>
-      </c>
-      <c r="H14" t="n" s="406">
-        <v>0.012876116437849822</v>
-      </c>
-      <c r="I14" t="n" s="407">
-        <v>0.5152899152396339</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="395">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="425">
         <v>32</v>
       </c>
-      <c r="B15" t="n" s="400">
-        <v>0.8423188405797102</v>
-      </c>
-      <c r="C15" t="n" s="401">
-        <v>0.8431694810720223</v>
-      </c>
-      <c r="D15" t="n" s="402">
-        <v>0.8544160097214117</v>
-      </c>
-      <c r="E15" t="n" s="403">
-        <v>0.47258821000241097</v>
-      </c>
-      <c r="F15" t="n" s="404">
-        <v>5.376309960813406</v>
-      </c>
-      <c r="G15" t="n" s="405">
-        <v>0.042913101940865575</v>
-      </c>
-      <c r="H15" t="n" s="406">
-        <v>0.021017631594421708</v>
-      </c>
-      <c r="I15" t="n" s="407">
-        <v>0.4661954000378643</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="395">
+      <c r="C17" t="s" s="425">
         <v>33</v>
       </c>
-      <c r="B16" t="n" s="400">
-        <v>0.8213687436159346</v>
-      </c>
-      <c r="C16" t="n" s="401">
-        <v>0.821262354206944</v>
-      </c>
-      <c r="D16" t="n" s="402">
-        <v>0.8335393988604678</v>
-      </c>
-      <c r="E16" t="n" s="403">
-        <v>0.43368403607582534</v>
-      </c>
-      <c r="F16" t="n" s="404">
-        <v>4.594792275365478</v>
-      </c>
-      <c r="G16" t="n" s="405">
-        <v>0.048632946072987224</v>
-      </c>
-      <c r="H16" t="n" s="406">
-        <v>0.016781053028572416</v>
-      </c>
-      <c r="I16" t="n" s="407">
-        <v>0.417412045758141</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="395">
+      <c r="D17" t="s" s="425">
         <v>34</v>
       </c>
-      <c r="B17" t="n" s="400">
-        <v>0.845509708737864</v>
-      </c>
-      <c r="C17" t="n" s="401">
-        <v>0.8454103901372144</v>
-      </c>
-      <c r="D17" t="n" s="402">
-        <v>0.847999045727889</v>
-      </c>
-      <c r="E17" t="n" s="403">
-        <v>0.47683878298879667</v>
-      </c>
-      <c r="F17" t="n" s="404">
-        <v>5.468740045903502</v>
-      </c>
-      <c r="G17" t="n" s="405">
-        <v>0.042303899191540664</v>
-      </c>
-      <c r="H17" t="n" s="406">
-        <v>0.01701910652404541</v>
-      </c>
-      <c r="I17" t="n" s="407">
-        <v>0.43821984734075287</v>
+      <c r="E17" t="s" s="425">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="425">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="425">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="425">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="421">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="426">
+        <v>32.0</v>
+      </c>
+      <c r="C18" t="n" s="427">
+        <v>0.8444776544644597</v>
+      </c>
+      <c r="D18" t="n" s="428">
+        <v>0.8404893694306491</v>
+      </c>
+      <c r="E18" t="n" s="429">
+        <v>0.7166690482737842</v>
+      </c>
+      <c r="F18" t="n" s="430">
+        <v>0.6347411701012132</v>
+      </c>
+      <c r="G18" t="n" s="431">
+        <v>3.21875</v>
+      </c>
+      <c r="H18" t="n" s="432">
+        <v>1.0993949949125246</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="421">
+        <v>29</v>
+      </c>
+      <c r="B19" t="n" s="426">
+        <v>32.0</v>
+      </c>
+      <c r="C19" t="n" s="427">
+        <v>0.8611184168541297</v>
+      </c>
+      <c r="D19" t="n" s="428">
+        <v>0.8499100508163778</v>
+      </c>
+      <c r="E19" t="n" s="429">
+        <v>0.7372448564252302</v>
+      </c>
+      <c r="F19" t="n" s="430">
+        <v>0.6516996067026267</v>
+      </c>
+      <c r="G19" t="n" s="431">
+        <v>2.65625</v>
+      </c>
+      <c r="H19" t="n" s="432">
+        <v>1.1530989102302514</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="421">
+        <v>30</v>
+      </c>
+      <c r="B20" t="n" s="426">
+        <v>32.0</v>
+      </c>
+      <c r="C20" t="n" s="427">
+        <v>0.8000040576418307</v>
+      </c>
+      <c r="D20" t="n" s="428">
+        <v>0.8162496750536337</v>
+      </c>
+      <c r="E20" t="n" s="429">
+        <v>0.657996718503244</v>
+      </c>
+      <c r="F20" t="n" s="430">
+        <v>0.5858404697040516</v>
+      </c>
+      <c r="G20" t="n" s="431">
+        <v>3.09375</v>
+      </c>
+      <c r="H20" t="n" s="432">
+        <v>0.9954533737723926</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="411">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21"/>
-      <c r="B21" t="s" s="425">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s" s="425">
+    <row r="23">
+      <c r="A23" t="s" s="436">
         <v>37</v>
       </c>
-      <c r="D21" t="s" s="425">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="450">
         <v>38</v>
       </c>
-      <c r="E21" t="s" s="425">
+      <c r="C24" t="s" s="450">
         <v>39</v>
       </c>
-      <c r="F21" t="s" s="425">
+      <c r="D24" t="s" s="450">
         <v>40</v>
       </c>
-      <c r="G21" t="s" s="425">
-        <v>9</v>
-      </c>
-      <c r="H21" t="s" s="425">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="421">
+      <c r="E24" t="s" s="450">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="450">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="450">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="446">
         <v>28</v>
       </c>
-      <c r="B22" t="n" s="426">
-        <v>32.0</v>
-      </c>
-      <c r="C22" t="n" s="427">
-        <v>0.7880505174589837</v>
-      </c>
-      <c r="D22" t="n" s="428">
-        <v>0.7771285014032954</v>
-      </c>
-      <c r="E22" t="n" s="429">
-        <v>0.7355613289595309</v>
-      </c>
-      <c r="F22" t="n" s="430">
-        <v>0.684329857625473</v>
-      </c>
-      <c r="G22" t="n" s="431">
-        <v>3.21875</v>
-      </c>
-      <c r="H22" t="n" s="432">
-        <v>1.0993949949125246</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="421">
+      <c r="B25" t="n" s="451">
+        <v>0.09375</v>
+      </c>
+      <c r="C25" t="n" s="452">
+        <v>0.09375</v>
+      </c>
+      <c r="D25" t="n" s="453">
+        <v>0.4375</v>
+      </c>
+      <c r="E25" t="n" s="454">
+        <v>0.25</v>
+      </c>
+      <c r="F25" t="n" s="455">
+        <v>0.125</v>
+      </c>
+      <c r="G25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="446">
         <v>29</v>
       </c>
-      <c r="B23" t="n" s="426">
-        <v>32.0</v>
-      </c>
-      <c r="C23" t="n" s="427">
-        <v>0.7387130488627206</v>
-      </c>
-      <c r="D23" t="n" s="428">
-        <v>0.7436725195920517</v>
-      </c>
-      <c r="E23" t="n" s="429">
-        <v>0.7089787379225273</v>
-      </c>
-      <c r="F23" t="n" s="430">
-        <v>0.6305109419105229</v>
-      </c>
-      <c r="G23" t="n" s="431">
-        <v>2.96875</v>
-      </c>
-      <c r="H23" t="n" s="432">
-        <v>0.9994958406536122</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="421">
+      <c r="B26" t="n" s="451">
+        <v>0.1875</v>
+      </c>
+      <c r="C26" t="n" s="452">
+        <v>0.25</v>
+      </c>
+      <c r="D26" t="n" s="453">
+        <v>0.34375</v>
+      </c>
+      <c r="E26" t="n" s="454">
+        <v>0.15625</v>
+      </c>
+      <c r="F26" t="n" s="455">
+        <v>0.0625</v>
+      </c>
+      <c r="G26" t="n" s="456">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="446">
         <v>30</v>
       </c>
-      <c r="B24" t="n" s="426">
-        <v>32.0</v>
-      </c>
-      <c r="C24" t="n" s="427">
-        <v>0.7905103720150757</v>
-      </c>
-      <c r="D24" t="n" s="428">
-        <v>0.7991088929641073</v>
-      </c>
-      <c r="E24" t="n" s="429">
-        <v>0.7863217565920947</v>
-      </c>
-      <c r="F24" t="n" s="430">
-        <v>0.7059493257495979</v>
-      </c>
-      <c r="G24" t="n" s="431">
-        <v>2.78125</v>
-      </c>
-      <c r="H24" t="n" s="432">
-        <v>0.9413228509270448</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="421">
-        <v>31</v>
-      </c>
-      <c r="B25" t="n" s="426">
-        <v>32.0</v>
-      </c>
-      <c r="C25" t="n" s="427">
-        <v>0.5683024367638344</v>
-      </c>
-      <c r="D25" t="n" s="428">
-        <v>0.5879158529166567</v>
-      </c>
-      <c r="E25" t="n" s="429">
-        <v>0.4793843385601901</v>
-      </c>
-      <c r="F25" t="n" s="430">
-        <v>0.4342221833594599</v>
-      </c>
-      <c r="G25" t="n" s="431">
-        <v>3.96875</v>
-      </c>
-      <c r="H25" t="n" s="432">
-        <v>0.89746506805953</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="421">
-        <v>32</v>
-      </c>
-      <c r="B26" t="n" s="426">
-        <v>32.0</v>
-      </c>
-      <c r="C26" t="n" s="427">
-        <v>0.7140185410919114</v>
-      </c>
-      <c r="D26" t="n" s="428">
-        <v>0.7141736421282091</v>
-      </c>
-      <c r="E26" t="n" s="429">
-        <v>0.6504287851093614</v>
-      </c>
-      <c r="F26" t="n" s="430">
-        <v>0.598338971939486</v>
-      </c>
-      <c r="G26" t="n" s="431">
-        <v>2.96875</v>
-      </c>
-      <c r="H26" t="n" s="432">
-        <v>0.9994958406536122</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="421">
-        <v>33</v>
-      </c>
-      <c r="B27" t="n" s="426">
-        <v>32.0</v>
-      </c>
-      <c r="C27" t="n" s="427">
-        <v>0.8246204917121096</v>
-      </c>
-      <c r="D27" t="n" s="428">
-        <v>0.8274591652960135</v>
-      </c>
-      <c r="E27" t="n" s="429">
-        <v>0.8076555108512947</v>
-      </c>
-      <c r="F27" t="n" s="430">
-        <v>0.7462692938645005</v>
-      </c>
-      <c r="G27" t="n" s="431">
-        <v>3.09375</v>
-      </c>
-      <c r="H27" t="n" s="432">
-        <v>0.9954533737723926</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="421">
-        <v>34</v>
-      </c>
-      <c r="B28" t="n" s="426">
-        <v>32.0</v>
-      </c>
-      <c r="C28" t="n" s="427">
-        <v>0.7235886215099934</v>
-      </c>
-      <c r="D28" t="n" s="428">
-        <v>0.7017963484878322</v>
-      </c>
-      <c r="E28" t="n" s="429">
-        <v>0.6455222179236889</v>
-      </c>
-      <c r="F28" t="n" s="430">
-        <v>0.5889605524057444</v>
-      </c>
-      <c r="G28" t="n" s="431">
-        <v>2.65625</v>
-      </c>
-      <c r="H28" t="n" s="432">
-        <v>1.1530989102302514</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="436">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32"/>
-      <c r="B32" t="s" s="450">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s" s="450">
-        <v>43</v>
-      </c>
-      <c r="D32" t="s" s="450">
-        <v>44</v>
-      </c>
-      <c r="E32" t="s" s="450">
-        <v>45</v>
-      </c>
-      <c r="F32" t="s" s="450">
-        <v>46</v>
-      </c>
-      <c r="G32" t="s" s="450">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="446">
-        <v>28</v>
-      </c>
-      <c r="B33" t="n" s="451">
-        <v>0.09375</v>
-      </c>
-      <c r="C33" t="n" s="452">
-        <v>0.09375</v>
-      </c>
-      <c r="D33" t="n" s="453">
-        <v>0.4375</v>
-      </c>
-      <c r="E33" t="n" s="454">
-        <v>0.25</v>
-      </c>
-      <c r="F33" t="n" s="455">
-        <v>0.125</v>
-      </c>
-      <c r="G33" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="446">
-        <v>29</v>
-      </c>
-      <c r="B34" t="n" s="451">
-        <v>0.0</v>
-      </c>
-      <c r="C34" t="n" s="452">
+      <c r="B27" t="n" s="451">
+        <v>0.0625</v>
+      </c>
+      <c r="C27" t="n" s="452">
+        <v>0.1875</v>
+      </c>
+      <c r="D27" t="n" s="453">
         <v>0.40625</v>
       </c>
-      <c r="D34" t="n" s="453">
-        <v>0.3125</v>
-      </c>
-      <c r="E34" t="n" s="454">
-        <v>0.1875</v>
-      </c>
-      <c r="F34" t="n" s="455">
-        <v>0.09375</v>
-      </c>
-      <c r="G34" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="446">
-        <v>30</v>
-      </c>
-      <c r="B35" t="n" s="451">
+      <c r="E27" t="n" s="454">
+        <v>0.28125</v>
+      </c>
+      <c r="F27" t="n" s="455">
         <v>0.0625</v>
       </c>
-      <c r="C35" t="n" s="452">
-        <v>0.3125</v>
-      </c>
-      <c r="D35" t="n" s="453">
-        <v>0.46875</v>
-      </c>
-      <c r="E35" t="n" s="454">
-        <v>0.09375</v>
-      </c>
-      <c r="F35" t="n" s="455">
-        <v>0.0625</v>
-      </c>
-      <c r="G35" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="446">
-        <v>31</v>
-      </c>
-      <c r="B36" t="n" s="451">
-        <v>0.0</v>
-      </c>
-      <c r="C36" t="n" s="452">
-        <v>0.0625</v>
-      </c>
-      <c r="D36" t="n" s="453">
-        <v>0.21875</v>
-      </c>
-      <c r="E36" t="n" s="454">
-        <v>0.40625</v>
-      </c>
-      <c r="F36" t="n" s="455">
-        <v>0.3125</v>
-      </c>
-      <c r="G36" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="446">
-        <v>32</v>
-      </c>
-      <c r="B37" t="n" s="451">
-        <v>0.0625</v>
-      </c>
-      <c r="C37" t="n" s="452">
-        <v>0.3125</v>
-      </c>
-      <c r="D37" t="n" s="453">
-        <v>0.21875</v>
-      </c>
-      <c r="E37" t="n" s="454">
-        <v>0.40625</v>
-      </c>
-      <c r="F37" t="n" s="455">
-        <v>0.0</v>
-      </c>
-      <c r="G37" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="446">
-        <v>33</v>
-      </c>
-      <c r="B38" t="n" s="451">
-        <v>0.0625</v>
-      </c>
-      <c r="C38" t="n" s="452">
-        <v>0.1875</v>
-      </c>
-      <c r="D38" t="n" s="453">
-        <v>0.40625</v>
-      </c>
-      <c r="E38" t="n" s="454">
-        <v>0.28125</v>
-      </c>
-      <c r="F38" t="n" s="455">
-        <v>0.0625</v>
-      </c>
-      <c r="G38" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="446">
-        <v>34</v>
-      </c>
-      <c r="B39" t="n" s="451">
-        <v>0.1875</v>
-      </c>
-      <c r="C39" t="n" s="452">
-        <v>0.25</v>
-      </c>
-      <c r="D39" t="n" s="453">
-        <v>0.34375</v>
-      </c>
-      <c r="E39" t="n" s="454">
-        <v>0.15625</v>
-      </c>
-      <c r="F39" t="n" s="455">
-        <v>0.0625</v>
-      </c>
-      <c r="G39" t="n" s="456">
+      <c r="G27" t="n" s="456">
         <v>0.0</v>
       </c>
     </row>
